--- a/qms/src/main/resources/report/template/iqc_electronic_report_nvl_new_ver2.xlsx
+++ b/qms/src/main/resources/report/template/iqc_electronic_report_nvl_new_ver2.xlsx
@@ -85,7 +85,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jx:each(items="data3" var="item3" lastCell="L5")</t>
+          <t>jx:each(items="data3" var="item3" lastCell="N5")</t>
         </r>
       </text>
     </comment>
@@ -109,7 +109,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="data2" var="item2" lastCell="M10")</t>
+jx:each(items="data2" var="item2" lastCell="N10")</t>
         </r>
       </text>
     </comment>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Số</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Kiểm tra thông số</t>
   </si>
   <si>
-    <t>Tiêu chí</t>
-  </si>
-  <si>
     <t>Nội dung lưu ý</t>
   </si>
   <si>
@@ -398,73 +395,79 @@
 </t>
   </si>
   <si>
+    <t>${item3.poQuantity}</t>
+  </si>
+  <si>
+    <t>${item3.itemCode}</t>
+  </si>
+  <si>
+    <t>${item3.itemName}</t>
+  </si>
+  <si>
+    <t>${data.itemType}</t>
+  </si>
+  <si>
+    <t>${data.importDate}</t>
+  </si>
+  <si>
+    <t>${item3.billNumber}</t>
+  </si>
+  <si>
+    <t>Mã NVL</t>
+  </si>
+  <si>
+    <t>${item.itemCode}</t>
+  </si>
+  <si>
+    <t>$[ROW()-ROW(A5)]</t>
+  </si>
+  <si>
+    <t>${item3.quantityCheck}</t>
+  </si>
+  <si>
+    <t>Đề nghị</t>
+  </si>
+  <si>
+    <t>${data.suggestion}</t>
+  </si>
+  <si>
+    <t>Số lượng lô hàng</t>
+  </si>
+  <si>
+    <t>Số mẫu kiểm tra</t>
+  </si>
+  <si>
+    <t>Ngày nhập hàng</t>
+  </si>
+  <si>
+    <t>Xuất xứ lô hàng</t>
+  </si>
+  <si>
+    <t>Mã PO</t>
+  </si>
+  <si>
+    <t>Loại hàng :</t>
+  </si>
+  <si>
+    <t>${data.grpoNumber}</t>
+  </si>
+  <si>
+    <t>Bậc rút nghiệm</t>
+  </si>
+  <si>
+    <t>Mức chấp nhận</t>
+  </si>
+  <si>
+    <t>${item2.acceptanceLevel}</t>
+  </si>
+  <si>
+    <t>Tiêu chí kiểm tra</t>
+  </si>
+  <si>
+    <t>Số lỗi thực tế</t>
+  </si>
+  <si>
     <t>$[ROW()-ROW(A8)]</t>
-  </si>
-  <si>
-    <t>${item3.poQuantity}</t>
-  </si>
-  <si>
-    <t>${item3.itemCode}</t>
-  </si>
-  <si>
-    <t>${item3.itemName}</t>
-  </si>
-  <si>
-    <t>${data.itemType}</t>
-  </si>
-  <si>
-    <t>${data.importDate}</t>
-  </si>
-  <si>
-    <t>${item3.billNumber}</t>
-  </si>
-  <si>
-    <t>Mã NVL</t>
-  </si>
-  <si>
-    <t>${item.itemCode}</t>
-  </si>
-  <si>
-    <t>$[ROW()-ROW(A5)]</t>
-  </si>
-  <si>
-    <t>${item3.quantityCheck}</t>
-  </si>
-  <si>
-    <t>Đề nghị</t>
-  </si>
-  <si>
-    <t>${data.suggestion}</t>
-  </si>
-  <si>
-    <t>Số lượng lô hàng</t>
-  </si>
-  <si>
-    <t>Số mẫu kiểm tra</t>
-  </si>
-  <si>
-    <t>Ngày nhập hàng</t>
-  </si>
-  <si>
-    <t>Xuất xứ lô hàng</t>
-  </si>
-  <si>
-    <t>Mã PO</t>
-  </si>
-  <si>
-    <t>Loại hàng :</t>
-  </si>
-  <si>
-    <t>${data.grpoNumber}</t>
-  </si>
-  <si>
-    <t>Bậc rút nghiệm</t>
-  </si>
-  <si>
-    <t>Mức chấp nhận</t>
-  </si>
-  <si>
-    <t>${item2.acceptanceLevel}</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -872,17 +875,83 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,66 +1001,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,11 +1031,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1442,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,8 +1454,8 @@
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
@@ -1457,39 +1463,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="A1" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="57" t="str">
+      <c r="M1" s="52" t="str">
         <f>CONCATENATE(LEFT(N2,14),"/IQC-LED")</f>
         <v>${data.reportC/IQC-LED</v>
       </c>
-      <c r="N1" s="57"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="31"/>
       <c r="C2" s="18"/>
       <c r="D2" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="56"/>
+        <v>67</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="38"/>
       <c r="G2" s="26" t="str">
         <f>IF(F3 = "Hàng mẫu","X","")</f>
         <v/>
@@ -1521,72 +1527,72 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="71"/>
+        <v>62</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="35"/>
       <c r="I4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="23"/>
+      <c r="M4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="34"/>
+      <c r="A5" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="51"/>
       <c r="F5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="40"/>
       <c r="I5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="84"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1623,48 +1629,48 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="58" t="s">
+      <c r="L8" s="47"/>
+      <c r="M8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="83"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1674,48 +1680,48 @@
       <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="61"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
     </row>
     <row r="10" spans="1:14" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>26</v>
@@ -1724,10 +1730,10 @@
         <v>27</v>
       </c>
       <c r="M10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,210 +1753,229 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+    </row>
+    <row r="18" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-    </row>
-    <row r="18" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="69"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="63"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="A19:D22"/>
+    <mergeCell ref="I19:N22"/>
+    <mergeCell ref="E19:H22"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F12:N12"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F15:N15"/>
+    <mergeCell ref="F16:N16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:N13"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:C9"/>
@@ -1961,30 +1986,13 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:N13"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A17:N17"/>
-    <mergeCell ref="A19:D22"/>
-    <mergeCell ref="I19:N22"/>
-    <mergeCell ref="E19:H22"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F12:N12"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="F15:N15"/>
-    <mergeCell ref="F16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.55510416666666662" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2019,120 +2027,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="71"/>
+        <v>62</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="35"/>
       <c r="H2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="34"/>
+      <c r="A3" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="51"/>
       <c r="E3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="40"/>
       <c r="H3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="78" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="79"/>
+      <c r="F5" s="81"/>
       <c r="G5" s="28" t="s">
         <v>17</v>
       </c>
@@ -2143,19 +2151,19 @@
     </row>
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="81"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="30" t="s">
         <v>20</v>
       </c>

--- a/qms/src/main/resources/report/template/iqc_electronic_report_nvl_new_ver2.xlsx
+++ b/qms/src/main/resources/report/template/iqc_electronic_report_nvl_new_ver2.xlsx
@@ -474,6 +474,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -953,6 +956,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,8 +1037,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,7 +1448,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,10 +1595,10 @@
       <c r="L5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="84"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1723,10 +1729,10 @@
       <c r="J10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="85" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="10" t="s">
@@ -1867,90 +1873,90 @@
       <c r="N17" s="53"/>
     </row>
     <row r="18" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="70" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="67" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="70"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="61"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="63"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="64"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="66"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -2027,21 +2033,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -2110,21 +2116,21 @@
       <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
@@ -2133,14 +2139,14 @@
       <c r="B5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="80" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="81"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="28" t="s">
         <v>17</v>
       </c>
@@ -2156,14 +2162,14 @@
       <c r="B6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="82" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="83"/>
+      <c r="F6" s="84"/>
       <c r="G6" s="30" t="s">
         <v>20</v>
       </c>
